--- a/112-2/ELECTRICAL ENGINEERING FUNDAMENTALS II/Lab/Lab 4/Lab 4.xlsx
+++ b/112-2/ELECTRICAL ENGINEERING FUNDAMENTALS II/Lab/Lab 4/Lab 4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\FCU\112-2\ELECTRICAL ENGINEERING FUNDAMENTALS II\Lab\Lab 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A475CD1-1D3F-4703-B008-649A1EE6FE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6769822E-6563-4FFB-8770-A00F778D3ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{B8D3E325-8008-4A73-97CE-65639325DCD6}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="23040" windowHeight="12120" xr2:uid="{B8D3E325-8008-4A73-97CE-65639325DCD6}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <t>r</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,15 +72,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>XL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>VR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -142,11 +132,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.000000"/>
     <numFmt numFmtId="177" formatCode="0.0000"/>
+    <numFmt numFmtId="180" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -204,7 +195,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -220,19 +211,22 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -569,44 +563,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E53952F-1CC0-470C-B051-7988D4853FCE}">
-  <dimension ref="A3:K19"/>
+  <dimension ref="A3:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="127" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:H8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="127" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.4" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="12.59765625" style="2" customWidth="1"/>
-    <col min="2" max="6" width="10.59765625" style="2" customWidth="1"/>
-    <col min="7" max="10" width="12.59765625" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9.06640625" style="2"/>
+    <col min="1" max="1" width="12.5546875" style="2" customWidth="1"/>
+    <col min="2" max="6" width="10.5546875" style="2" customWidth="1"/>
+    <col min="7" max="10" width="12.5546875" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="C3" s="5" t="s">
+    <row r="3" spans="1:10">
+      <c r="C3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="8"/>
+      <c r="E3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="8"/>
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="6" t="s">
+      <c r="H3" s="8"/>
+      <c r="I3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="6"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>0</v>
@@ -633,11 +627,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10">
       <c r="A5" s="2">
         <v>100</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="10">
         <f>1/(2*PI()*A5*10^-6)</f>
         <v>1591.5494309189535</v>
       </c>
@@ -657,9 +651,9 @@
         <f>-D5</f>
         <v>-89.964000004737414</v>
       </c>
-      <c r="G5" s="3">
-        <f>E5</f>
-        <v>3.1415920334644429E-3</v>
+      <c r="G5" s="4">
+        <f>2/(B5*SQRT(2))</f>
+        <v>8.8857658763167322E-4</v>
       </c>
       <c r="H5" s="2">
         <v>9.2299999999999999E-4</v>
@@ -672,11 +666,11 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10">
       <c r="A6" s="2">
         <v>500</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="10">
         <f t="shared" ref="B6:B8" si="0">1/(2*PI()*A6*10^-6)</f>
         <v>318.3098861837907</v>
       </c>
@@ -696,9 +690,9 @@
         <f t="shared" ref="F6:F8" si="4">-D6</f>
         <v>-89.820000592172761</v>
       </c>
-      <c r="G6" s="3">
-        <f t="shared" ref="G6:G7" si="5">E6</f>
-        <v>1.5707885752831045E-2</v>
+      <c r="G6" s="4">
+        <f t="shared" ref="G6:G8" si="5">2/(B6*SQRT(2))</f>
+        <v>4.4428829381583657E-3</v>
       </c>
       <c r="H6" s="4">
         <v>4.4250000000000001E-3</v>
@@ -711,11 +705,11 @@
         <v>-90.05</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10">
       <c r="A7" s="2">
         <v>1000</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="10">
         <f t="shared" si="0"/>
         <v>159.15494309189535</v>
       </c>
@@ -735,9 +729,9 @@
         <f t="shared" si="4"/>
         <v>-89.6400047372979</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="4">
         <f t="shared" si="5"/>
-        <v>3.1415306428724907E-2</v>
+        <v>8.8857658763167313E-3</v>
       </c>
       <c r="H7" s="2">
         <v>8.3239999999999998E-3</v>
@@ -750,11 +744,11 @@
         <v>-90.24</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10">
       <c r="A8" s="2">
         <v>10000</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="10">
         <f t="shared" si="0"/>
         <v>15.915494309189533</v>
       </c>
@@ -774,9 +768,9 @@
         <f t="shared" si="4"/>
         <v>-86.404726220131835</v>
       </c>
-      <c r="G8" s="3">
-        <f>E8</f>
-        <v>0.31354096992368807</v>
+      <c r="G8" s="4">
+        <f t="shared" si="5"/>
+        <v>8.8857658763167327E-2</v>
       </c>
       <c r="H8" s="2">
         <v>2.3061999999999999E-2</v>
@@ -789,60 +783,71 @@
         <v>-120.79</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10">
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="2">
-        <f>2*SQRT(2)/SQRT(2)</f>
-        <v>2</v>
-      </c>
-      <c r="F11" s="2" t="e">
+        <v>1.4139999999999999</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.70720000000000005</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1.224</v>
+      </c>
+      <c r="E11" s="2">
+        <v>7.0707000000000001E-3</v>
+      </c>
+      <c r="F11" s="2">
         <f>D11/E11</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G11" s="2" t="e">
+        <v>173.10874453731597</v>
+      </c>
+      <c r="G11" s="2">
         <f>B11/E11</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+        <v>199.98019998019996</v>
+      </c>
+      <c r="H11" s="2">
+        <v>59.980600000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="5">
         <v>1.2346999999999999</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="5">
         <v>0.59826000000000001</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="5">
         <v>1.04938</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="5">
         <v>6.0239999999999998E-3</v>
       </c>
       <c r="F12" s="2">
@@ -857,27 +862,27 @@
         <v>57.6</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A14" s="8" t="s">
-        <v>24</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="2">
         <f>2*PI()*919</f>
         <v>5774.2472972980395</v>
@@ -896,7 +901,7 @@
         <f>B15*SIN(DEGREES(C15))</f>
         <v>1.9081829349456363</v>
       </c>
-      <c r="F15" s="9" t="str">
+      <c r="F15" s="7" t="str">
         <f>COMPLEX(ROUND(D15,4), ROUND(E15, 4), "j")</f>
         <v>-0.599+1.9082j</v>
       </c>
@@ -905,76 +910,87 @@
         <v>1.00565548770768-0.0193055583107192j</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9">
       <c r="B17" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B18" s="2">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2">
+        <v>4.9959999999999996E-3</v>
+      </c>
+      <c r="D18" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E18" s="2">
+        <v>3.9960000000000004E-3</v>
+      </c>
+      <c r="F18" s="3">
+        <f>B18/E18</f>
+        <v>750.75075075075063</v>
+      </c>
+      <c r="G18" s="3">
+        <f>B18/C18</f>
+        <v>600.480384307446</v>
+      </c>
+      <c r="H18" s="2">
+        <v>53.103299999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="5">
         <v>2.8563000000000001</v>
       </c>
-      <c r="C19" s="7">
-        <v>2.8563000000000001</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2.8563000000000001</v>
-      </c>
-      <c r="E19" s="7">
+      <c r="C19" s="5">
         <v>4.9160000000000002E-3</v>
       </c>
-      <c r="F19" s="7">
+      <c r="D19" s="5">
         <v>2.8930000000000002E-3</v>
       </c>
-      <c r="G19" s="7">
+      <c r="E19" s="5">
         <v>3.9029999999999998E-3</v>
       </c>
+      <c r="F19" s="3">
+        <f>B19/E19</f>
+        <v>731.8216756341277</v>
+      </c>
+      <c r="G19" s="3">
+        <f>B19/C19</f>
+        <v>581.02115541090313</v>
+      </c>
       <c r="H19" s="2">
-        <f>D19/E19</f>
-        <v>581.02115541090313</v>
-      </c>
-      <c r="I19" s="2" t="e">
-        <f>B19/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J19" s="2">
         <f>(-70.3+-66.1)/2+180</f>
         <v>111.80000000000001</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -986,5 +1002,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/112-2/ELECTRICAL ENGINEERING FUNDAMENTALS II/Lab/Lab 4/Lab 4.xlsx
+++ b/112-2/ELECTRICAL ENGINEERING FUNDAMENTALS II/Lab/Lab 4/Lab 4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\FCU\112-2\ELECTRICAL ENGINEERING FUNDAMENTALS II\Lab\Lab 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6769822E-6563-4FFB-8770-A00F778D3ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB06FEB-B8EE-41FA-8CBF-E475540700D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1500" windowWidth="23040" windowHeight="12120" xr2:uid="{B8D3E325-8008-4A73-97CE-65639325DCD6}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{B8D3E325-8008-4A73-97CE-65639325DCD6}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
   <si>
     <t>r</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,14 +48,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5/(1+XLj)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1+XLj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Measurement</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -108,36 +100,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Re</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Im</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Amplitude</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Angle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ω</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/(1+XCj)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R//C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Experiment 4.a Pure Capacitive AC Circuit</t>
+  </si>
+  <si>
+    <t>Experiment 4.b RC Series Circuit</t>
+  </si>
+  <si>
+    <t>Experiment 4.c RC Parallel Circuit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.000000"/>
     <numFmt numFmtId="177" formatCode="0.0000"/>
-    <numFmt numFmtId="180" formatCode="0.0"/>
+    <numFmt numFmtId="178" formatCode="0.0"/>
+    <numFmt numFmtId="179" formatCode="0.00000"/>
+    <numFmt numFmtId="180" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -167,7 +166,7 @@
       <charset val="161"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -177,6 +176,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -195,7 +200,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -217,7 +222,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -226,8 +231,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -563,280 +574,289 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E53952F-1CC0-470C-B051-7988D4853FCE}">
-  <dimension ref="A3:J19"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="127" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" zoomScale="127" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="15.4" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" style="2" customWidth="1"/>
-    <col min="2" max="6" width="10.5546875" style="2" customWidth="1"/>
-    <col min="7" max="10" width="12.5546875" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="12.53125" style="2" customWidth="1"/>
+    <col min="2" max="5" width="10.59765625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.53125" style="2" customWidth="1"/>
+    <col min="7" max="10" width="12.53125" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9.1328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10">
-      <c r="C3" s="8" t="s">
+    <row r="1" spans="1:9" ht="16.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8" t="s">
+      <c r="G2" s="8"/>
+      <c r="H2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="9"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="I3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4" s="2">
+        <v>100</v>
+      </c>
+      <c r="B4" s="7" t="str">
+        <f>IMDIV(1,COMPLEX(0,2*PI()*A4*10^-6, "j"))</f>
+        <v>-1591.54943091895j</v>
+      </c>
+      <c r="C4" s="3" t="str">
+        <f>IMDIV(2/SQRT(2), IMSUM(1, B4))</f>
+        <v>5.58308915559587E-07+0.000888576236835837j</v>
+      </c>
+      <c r="D4" s="11">
+        <f>IMABS(C4)</f>
+        <v>8.8857641223373844E-4</v>
+      </c>
+      <c r="E4" s="3">
+        <f>DEGREES(ATAN(IMAGINARY(C4)/IMREAL(C4)))</f>
+        <v>89.964000004737414</v>
+      </c>
+      <c r="F4" s="4">
+        <f>D4</f>
+        <v>8.8857641223373844E-4</v>
+      </c>
+      <c r="G4" s="2">
+        <v>9.2299999999999999E-4</v>
+      </c>
+      <c r="H4" s="3">
+        <f>E4</f>
+        <v>89.964000004737414</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
-        <v>100</v>
-      </c>
-      <c r="B5" s="10">
-        <f>1/(2*PI()*A5*10^-6)</f>
-        <v>1591.5494309189535</v>
-      </c>
-      <c r="C5" s="3">
-        <f>SQRT(1^2+B5^2)</f>
-        <v>1591.5497450781879</v>
-      </c>
-      <c r="D5" s="3">
-        <f>DEGREES(ATAN(B5/1))</f>
-        <v>89.964000004737414</v>
+        <v>500</v>
+      </c>
+      <c r="B5" s="7" t="str">
+        <f t="shared" ref="B5:B7" si="0">IMDIV(1,COMPLEX(0,2*PI()*A5*10^-6, "j"))</f>
+        <v>-318.309886183791j</v>
+      </c>
+      <c r="C5" s="3" t="str">
+        <f t="shared" ref="C5:C7" si="1">IMDIV(2/SQRT(2), IMSUM(1, B5))</f>
+        <v>0.0000139575906433797+0.00444283908909413j</v>
+      </c>
+      <c r="D5" s="11">
+        <f t="shared" ref="D5:D7" si="2">IMABS(C5)</f>
+        <v>4.4428610135721471E-3</v>
       </c>
       <c r="E5" s="3">
-        <f>5/C5</f>
-        <v>3.1415920334644429E-3</v>
-      </c>
-      <c r="F5" s="3">
-        <f>-D5</f>
-        <v>-89.964000004737414</v>
+        <f t="shared" ref="E5:E7" si="3">DEGREES(ATAN(IMAGINARY(C5)/IMREAL(C5)))</f>
+        <v>89.820000592172761</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" ref="F5:F7" si="4">D5</f>
+        <v>4.4428610135721471E-3</v>
       </c>
       <c r="G5" s="4">
-        <f>2/(B5*SQRT(2))</f>
-        <v>8.8857658763167322E-4</v>
-      </c>
-      <c r="H5" s="2">
-        <v>9.2299999999999999E-4</v>
-      </c>
-      <c r="I5" s="3">
-        <f>F5</f>
-        <v>-89.964000004737414</v>
-      </c>
-      <c r="J5" s="2">
-        <v>1.62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>4.4250000000000001E-3</v>
+      </c>
+      <c r="H5" s="3">
+        <f>E5</f>
+        <v>89.820000592172761</v>
+      </c>
+      <c r="I5" s="2">
+        <v>-90.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
-        <v>500</v>
-      </c>
-      <c r="B6" s="10">
-        <f t="shared" ref="B6:B8" si="0">1/(2*PI()*A6*10^-6)</f>
-        <v>318.3098861837907</v>
-      </c>
-      <c r="C6" s="3">
-        <f t="shared" ref="C6:C8" si="1">SQRT(1^2+B6^2)</f>
-        <v>318.31145697624174</v>
-      </c>
-      <c r="D6" s="3">
-        <f t="shared" ref="D6:D8" si="2">DEGREES(ATAN(B6/1))</f>
-        <v>89.820000592172761</v>
+        <v>1000</v>
+      </c>
+      <c r="B6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>-159.154943091895j</v>
+      </c>
+      <c r="C6" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0.0000558287095680006+0.00888541509418907j</v>
+      </c>
+      <c r="D6" s="11">
+        <f t="shared" si="2"/>
+        <v>8.8855904835219018E-3</v>
       </c>
       <c r="E6" s="3">
-        <f t="shared" ref="E6:E8" si="3">5/C6</f>
-        <v>1.5707885752831045E-2</v>
-      </c>
-      <c r="F6" s="3">
-        <f t="shared" ref="F6:F8" si="4">-D6</f>
-        <v>-89.820000592172761</v>
-      </c>
-      <c r="G6" s="4">
-        <f t="shared" ref="G6:G8" si="5">2/(B6*SQRT(2))</f>
-        <v>4.4428829381583657E-3</v>
-      </c>
-      <c r="H6" s="4">
-        <v>4.4250000000000001E-3</v>
-      </c>
-      <c r="I6" s="3">
-        <f>F6</f>
-        <v>-89.820000592172761</v>
-      </c>
-      <c r="J6" s="2">
-        <v>-90.05</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <f t="shared" si="3"/>
+        <v>89.6400047372979</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="4"/>
+        <v>8.8855904835219018E-3</v>
+      </c>
+      <c r="G6" s="2">
+        <v>8.3239999999999998E-3</v>
+      </c>
+      <c r="H6" s="3">
+        <f>E6</f>
+        <v>89.6400047372979</v>
+      </c>
+      <c r="I6" s="2">
+        <v>-90.24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
-        <v>1000</v>
-      </c>
-      <c r="B7" s="10">
+        <v>10000</v>
+      </c>
+      <c r="B7" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>159.15494309189535</v>
-      </c>
-      <c r="C7" s="3">
+        <v>-15.9154943091895j</v>
+      </c>
+      <c r="C7" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>159.15808465354326</v>
-      </c>
-      <c r="D7" s="3">
-        <f t="shared" si="2"/>
-        <v>89.6400047372979</v>
+        <v>0.00556113687133497+0.0885082422283556j</v>
+      </c>
+      <c r="D7" s="11">
+        <f>IMABS(C7)</f>
+        <v>8.8682778405139023E-2</v>
       </c>
       <c r="E7" s="3">
         <f t="shared" si="3"/>
-        <v>3.1415306428724907E-2</v>
-      </c>
-      <c r="F7" s="3">
+        <v>86.40472622013182</v>
+      </c>
+      <c r="F7" s="4">
         <f t="shared" si="4"/>
-        <v>-89.6400047372979</v>
-      </c>
-      <c r="G7" s="4">
-        <f t="shared" si="5"/>
-        <v>8.8857658763167313E-3</v>
-      </c>
-      <c r="H7" s="2">
-        <v>8.3239999999999998E-3</v>
-      </c>
-      <c r="I7" s="3">
-        <f>F7</f>
-        <v>-89.6400047372979</v>
-      </c>
-      <c r="J7" s="2">
-        <v>-90.24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="2">
-        <v>10000</v>
-      </c>
-      <c r="B8" s="10">
-        <f t="shared" si="0"/>
-        <v>15.915494309189533</v>
-      </c>
-      <c r="C8" s="3">
-        <f t="shared" si="1"/>
-        <v>15.946879290502089</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" si="2"/>
-        <v>86.404726220131835</v>
-      </c>
-      <c r="E8" s="3">
-        <f t="shared" si="3"/>
-        <v>0.31354096992368807</v>
-      </c>
-      <c r="F8" s="3">
-        <f t="shared" si="4"/>
-        <v>-86.404726220131835</v>
-      </c>
-      <c r="G8" s="4">
-        <f t="shared" si="5"/>
-        <v>8.8857658763167327E-2</v>
-      </c>
-      <c r="H8" s="2">
+        <v>8.8682778405139023E-2</v>
+      </c>
+      <c r="G7" s="2">
         <v>2.3061999999999999E-2</v>
       </c>
-      <c r="I8" s="3">
-        <f>F8</f>
-        <v>-86.404726220131835</v>
-      </c>
-      <c r="J8" s="2">
+      <c r="H7" s="3">
+        <f>E7</f>
+        <v>86.40472622013182</v>
+      </c>
+      <c r="I7" s="2">
         <v>-120.79</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="9" spans="1:9" ht="16.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B10" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="2">
-        <v>1.4139999999999999</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.70720000000000005</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1.224</v>
-      </c>
-      <c r="E11" s="2">
-        <v>7.0707000000000001E-3</v>
+      <c r="B11" s="3">
+        <f>2/SQRT(2)</f>
+        <v>1.4142135623730949</v>
+      </c>
+      <c r="C11" s="10">
+        <f>IMABS(IMPRODUCT(E11, 100))</f>
+        <v>0.70717517425221998</v>
+      </c>
+      <c r="D11" s="10">
+        <f>IMABS(IMPRODUCT(E11, B16))</f>
+        <v>1.2247053820904601</v>
+      </c>
+      <c r="E11" s="4">
+        <f>IMABS(IMDIV(B11,IMSUM(100,B16)))</f>
+        <v>7.0717517425222046E-3</v>
       </c>
       <c r="F11" s="2">
         <f>D11/E11</f>
-        <v>173.10874453731597</v>
+        <v>173.18274547540292</v>
       </c>
       <c r="G11" s="2">
         <f>B11/E11</f>
-        <v>199.98019998019996</v>
+        <v>199.98065739065422</v>
       </c>
       <c r="H11" s="2">
         <v>59.980600000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B12" s="5">
         <v>1.2346999999999999</v>
@@ -862,143 +882,179 @@
         <v>57.6</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="2">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2">
+        <f>2*PI()*B14</f>
+        <v>5774.2472972980395</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <f>IMDIV(1, COMPLEX(0, B15*10^-6, "j"))</f>
+        <v>-173.182745475403j</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="16.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A18" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="2">
-        <f>2*PI()*919</f>
-        <v>5774.2472972980395</v>
-      </c>
-      <c r="B15" s="2">
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="2">
-        <v>-90</v>
-      </c>
-      <c r="D15" s="3">
-        <f>B15*COS(DEGREES(C15))</f>
-        <v>-0.59903078951107136</v>
-      </c>
-      <c r="E15" s="3">
-        <f>B15*SIN(DEGREES(C15))</f>
-        <v>1.9081829349456363</v>
-      </c>
-      <c r="F15" s="7" t="str">
-        <f>COMPLEX(ROUND(D15,4), ROUND(E15, 4), "j")</f>
-        <v>-0.599+1.9082j</v>
-      </c>
-      <c r="H15" s="2" t="str">
-        <f>IMDIV(COMPLEX(100, 0, "j"),IMSUM(COMPLEX(100, 0, "j"), F15))</f>
-        <v>1.00565548770768-0.0193055583107192j</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="B17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="2">
+      <c r="B20" s="2">
         <v>3</v>
       </c>
-      <c r="C18" s="2">
-        <v>4.9959999999999996E-3</v>
-      </c>
-      <c r="D18" s="2">
+      <c r="C20" s="4">
+        <f>IMABS(IMDIV(B20,B26))</f>
+        <v>4.9968852305503388E-3</v>
+      </c>
+      <c r="D20" s="4">
+        <f>B20/10^3</f>
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E18" s="2">
-        <v>3.9960000000000004E-3</v>
-      </c>
-      <c r="F18" s="3">
-        <f>B18/E18</f>
-        <v>750.75075075075063</v>
-      </c>
-      <c r="G18" s="3">
-        <f>B18/C18</f>
-        <v>600.480384307446</v>
-      </c>
-      <c r="H18" s="2">
+      <c r="E20" s="4">
+        <f>IMABS(IMDIV(B20,B25))</f>
+        <v>3.9961058553662099E-3</v>
+      </c>
+      <c r="F20" s="3">
+        <f>B20/E20</f>
+        <v>750.73086364101709</v>
+      </c>
+      <c r="G20" s="3">
+        <f>B20/C20</f>
+        <v>600.37400532202957</v>
+      </c>
+      <c r="H20" s="2">
         <v>53.103299999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="5">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="5">
         <v>2.8563000000000001</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C21" s="5">
         <v>4.9160000000000002E-3</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D21" s="5">
         <v>2.8930000000000002E-3</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E21" s="5">
         <v>3.9029999999999998E-3</v>
       </c>
-      <c r="F19" s="3">
-        <f>B19/E19</f>
+      <c r="F21" s="3">
+        <f>B21/E21</f>
         <v>731.8216756341277</v>
       </c>
-      <c r="G19" s="3">
-        <f>B19/C19</f>
+      <c r="G21" s="3">
+        <f>B21/C21</f>
         <v>581.02115541090313</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H21" s="2">
         <f>(-70.3+-66.1)/2+180</f>
         <v>111.80000000000001</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>13</v>
+      <c r="I21" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A24" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="2">
+        <f>2*PI()*B23</f>
+        <v>1332.0352851220723</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A25" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="2" t="str">
+        <f>IMDIV(1, COMPLEX(0, B24*10^-6, "j"))</f>
+        <v>-750.730863641017j</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="2" t="str">
+        <f>IMDIV(IMPRODUCT(10^3, B25), IMSUM(10^3, B25))</f>
+        <v>360.448946266416-480.130714911936j</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
+  <mergeCells count="6">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="C2:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
